--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H2">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.7047091018575</v>
+        <v>40.70766766666667</v>
       </c>
       <c r="N2">
-        <v>37.7047091018575</v>
+        <v>122.123003</v>
       </c>
       <c r="O2">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
       <c r="P2">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
       <c r="Q2">
-        <v>65.65453982578484</v>
+        <v>73.5831665050441</v>
       </c>
       <c r="R2">
-        <v>65.65453982578484</v>
+        <v>662.2484985453971</v>
       </c>
       <c r="S2">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
       <c r="T2">
-        <v>0.3656897686340572</v>
+        <v>0.3776398983502007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H3">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.6818978438086</v>
+        <v>39.715023</v>
       </c>
       <c r="N3">
-        <v>39.6818978438086</v>
+        <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
       <c r="P3">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
       <c r="Q3">
-        <v>69.09738344117628</v>
+        <v>71.788862336459</v>
       </c>
       <c r="R3">
-        <v>69.09738344117628</v>
+        <v>646.0997610281311</v>
       </c>
       <c r="S3">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
       <c r="T3">
-        <v>0.3848660919849868</v>
+        <v>0.3684312589831062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H4">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.719119098281</v>
+        <v>27.37224266666666</v>
       </c>
       <c r="N4">
-        <v>25.719119098281</v>
+        <v>82.11672799999999</v>
       </c>
       <c r="O4">
-        <v>0.2494441393809559</v>
+        <v>0.253928842666693</v>
       </c>
       <c r="P4">
-        <v>0.2494441393809559</v>
+        <v>0.253928842666693</v>
       </c>
       <c r="Q4">
-        <v>44.78424497482747</v>
+        <v>49.47805672018578</v>
       </c>
       <c r="R4">
-        <v>44.78424497482747</v>
+        <v>445.302510481672</v>
       </c>
       <c r="S4">
-        <v>0.2494441393809559</v>
+        <v>0.253928842666693</v>
       </c>
       <c r="T4">
-        <v>0.2494441393809559</v>
+        <v>0.253928842666693</v>
       </c>
     </row>
   </sheetData>
